--- a/Spec_Sheet_And_Process_Summary.xlsx
+++ b/Spec_Sheet_And_Process_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uncw4-my.sharepoint.com/personal/sjb3756_uncw_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{186233F2-4AC6-4B5E-A78E-4E56BED7407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91998FF5-5414-418D-B124-42E00CC48C34}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{186233F2-4AC6-4B5E-A78E-4E56BED7407A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{558CDC43-D404-4BE1-AC20-8AD4F0977415}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7E0C0133-8937-4EFD-82DE-21ABAF91305B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="130">
   <si>
     <t>Variable</t>
   </si>
@@ -503,7 +503,22 @@
     <t>This Models inputs were the variables we got from the last model, however this included interactions. The green is the best predictors</t>
   </si>
   <si>
-    <t>This Models inputs were all the variables from our first model run, but  this one included interactions. The green is the best predictors</t>
+    <t>Cohort*GrantRate</t>
+  </si>
+  <si>
+    <t>InstateT*Cohort</t>
+  </si>
+  <si>
+    <t>AVGsalary* inStateF</t>
+  </si>
+  <si>
+    <t>InstateT *InStateF</t>
+  </si>
+  <si>
+    <t>InStateT* avg Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Models inputs were all the variables from our first model run, but  this one included interactions. </t>
   </si>
 </sst>
 </file>
@@ -714,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -779,13 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -823,62 +832,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -886,15 +915,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -950,226 +970,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFAFBFE"/>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFC1C1C1"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC1C1C1"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFC1C1C1"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFC1C1C1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFAFBFE"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1574,6 +1374,216 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFAFBFE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1620,15 +1630,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFAFBFE"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFAFBFE"/>
         </patternFill>
@@ -1777,6 +1778,34 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1790,17 +1819,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}" name="Table2" displayName="Table2" ref="A2:G34" totalsRowShown="0" headerRowDxfId="30" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}" name="Table2" displayName="Table2" ref="A2:G34" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A2:G34" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2034FB47-21B1-4249-978F-27B069BB85B3}" name="Variable" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{5A1577E3-AF40-4B62-91EB-BC3ABFF780EE}" name="Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{CFE40E46-0D4A-4E15-992F-BDB8191CCF98}" name="Length" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{F3B9CA11-7C85-4585-8C07-37E57023C7A5}" name="Label" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{60D6E0C6-63B6-4833-A298-1C2260194564}" name="Format" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{97127639-2D77-4C21-A5C5-5417262AB66F}" name="Source Variables/Tables" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{F59D4509-DAE5-4DFA-8F4A-7577D70EFE01}" name="Rationale" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{2034FB47-21B1-4249-978F-27B069BB85B3}" name="Variable" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{5A1577E3-AF40-4B62-91EB-BC3ABFF780EE}" name="Type" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{CFE40E46-0D4A-4E15-992F-BDB8191CCF98}" name="Length" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{F3B9CA11-7C85-4585-8C07-37E57023C7A5}" name="Label" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{60D6E0C6-63B6-4833-A298-1C2260194564}" name="Format" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{97127639-2D77-4C21-A5C5-5417262AB66F}" name="Source Variables/Tables" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{F59D4509-DAE5-4DFA-8F4A-7577D70EFE01}" name="Rationale" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1824,8 +1857,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFC83E4D-9340-41B7-9EBD-F7E41F783802}" name="Table245" displayName="Table245" ref="A2:H20" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A2:H20" xr:uid="{CFC83E4D-9340-41B7-9EBD-F7E41F783802}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CFC83E4D-9340-41B7-9EBD-F7E41F783802}" name="Table245" displayName="Table245" ref="A2:H25" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:H25" xr:uid="{CFC83E4D-9340-41B7-9EBD-F7E41F783802}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{6CF905C8-B411-4F02-B541-521A3D7C2D6D}" name="Variable" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{593483D0-A422-4B8B-842F-CE70DB3C588E}" name="Type" dataDxfId="16"/>
@@ -1841,17 +1874,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DB5097BB-97A8-4EC6-BEF9-B8F1C4157862}" name="Table2456" displayName="Table2456" ref="A2:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DB5097BB-97A8-4EC6-BEF9-B8F1C4157862}" name="Table2456" displayName="Table2456" ref="A2:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:H28" xr:uid="{DB5097BB-97A8-4EC6-BEF9-B8F1C4157862}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3446FE15-2F6C-4CC5-9879-7C8EE7658E69}" name="Variable" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{11DA4A10-ED67-43B5-B33E-344DE85F9DC3}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{26A8BB6B-68EF-430C-9857-0865A5428134}" name="Length" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B4B28CF6-5463-44A9-819F-2BFC7F06338A}" name="Label" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FA8337C7-9E91-45FE-9CD6-6FF2774AC78D}" name="Format" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{E9BCE906-07F2-4504-B3B3-DF2BE758B958}" name="Source Variables/Tables" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EAF47565-E20F-44DE-92E7-E65C9411A7AC}" name="Rationale" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{CC4F6B58-D79F-4571-9C0B-C29D944B5B24}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3446FE15-2F6C-4CC5-9879-7C8EE7658E69}" name="Variable" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{11DA4A10-ED67-43B5-B33E-344DE85F9DC3}" name="Type" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{26A8BB6B-68EF-430C-9857-0865A5428134}" name="Length" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{B4B28CF6-5463-44A9-819F-2BFC7F06338A}" name="Label" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{FA8337C7-9E91-45FE-9CD6-6FF2774AC78D}" name="Format" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{E9BCE906-07F2-4504-B3B3-DF2BE758B958}" name="Source Variables/Tables" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{EAF47565-E20F-44DE-92E7-E65C9411A7AC}" name="Rationale" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{CC4F6B58-D79F-4571-9C0B-C29D944B5B24}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2192,15 +2225,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -2950,17 +2983,17 @@
     <col min="8" max="8" width="42.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="23" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2986,7 +3019,7 @@
       <c r="G2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3036,25 +3069,25 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
+      <c r="B5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="26"/>
+      <c r="G5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -3177,52 +3210,52 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="32">
-        <v>8</v>
-      </c>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30">
+        <v>8</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="26"/>
+      <c r="G11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="32">
-        <v>8</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="B12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30">
+        <v>8</v>
+      </c>
+      <c r="D12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="26"/>
+      <c r="G12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -3247,52 +3280,52 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="32">
-        <v>8</v>
-      </c>
-      <c r="D14" s="33" t="s">
+      <c r="B14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="30">
+        <v>8</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="26"/>
+      <c r="G14" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="32">
-        <v>8</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="30">
+        <v>8</v>
+      </c>
+      <c r="D15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="26"/>
+      <c r="G15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -3317,48 +3350,48 @@
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="32">
-        <v>8</v>
-      </c>
-      <c r="D17" s="26" t="s">
+      <c r="B17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="30">
+        <v>8</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="26"/>
+      <c r="G17" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="32">
-        <v>8</v>
-      </c>
-      <c r="D18" s="26" t="s">
+      <c r="B18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="30">
+        <v>8</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="26"/>
+      <c r="G18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -3563,26 +3596,26 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="35">
-        <v>8</v>
-      </c>
-      <c r="D28" s="36" t="s">
+      <c r="B28" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="33">
+        <v>8</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="26"/>
+      <c r="G28" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -3621,15 +3654,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF906C1-738B-4884-B683-D50D5171CEE9}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="74" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.5546875" bestFit="1" customWidth="1"/>
@@ -3640,16 +3673,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -3673,7 +3706,7 @@
       <c r="G2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3724,284 +3757,343 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="42"/>
+      <c r="G5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="43">
-        <v>8</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="42"/>
+      <c r="G6" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="53">
-        <v>8</v>
-      </c>
-      <c r="D7" s="54" t="s">
+      <c r="B7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="45">
+        <v>8</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="52"/>
+      <c r="G7" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="37">
+        <v>8</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="42"/>
+      <c r="G8" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>8</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="42"/>
+      <c r="G9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="43">
-        <v>8</v>
-      </c>
-      <c r="D10" s="42" t="s">
+      <c r="B10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="37">
+        <v>8</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="42"/>
+      <c r="G10" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="43">
-        <v>8</v>
-      </c>
-      <c r="D11" s="42" t="s">
+      <c r="B11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="37">
+        <v>8</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42" t="s">
+      <c r="E11" s="36"/>
+      <c r="F11" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="42"/>
+      <c r="G11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="47">
-        <v>8</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="35">
+        <v>8</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="42"/>
+      <c r="G12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4020,7 +4112,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4036,16 +4128,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="A1" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -4069,7 +4161,7 @@
       <c r="G2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4098,576 +4190,575 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="42"/>
+      <c r="G4" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="43">
-        <v>8</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="37">
+        <v>8</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="42"/>
+      <c r="G5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="43">
-        <v>8</v>
-      </c>
-      <c r="D6" s="44" t="s">
+      <c r="B6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="42"/>
+      <c r="G6" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="43">
-        <v>8</v>
-      </c>
-      <c r="D7" s="44" t="s">
+      <c r="B7" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="37">
+        <v>8</v>
+      </c>
+      <c r="D7" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="42"/>
+      <c r="G7" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="43">
-        <v>8</v>
-      </c>
-      <c r="D8" s="44" t="s">
+      <c r="B8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="37">
+        <v>8</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="42"/>
+      <c r="G8" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="43">
-        <v>8</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="B9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37">
+        <v>8</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="42"/>
+      <c r="G9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="43">
-        <v>8</v>
-      </c>
-      <c r="D10" s="44" t="s">
+      <c r="B10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="37">
+        <v>8</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="42"/>
+      <c r="G10" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="43">
-        <v>8</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="B11" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="37">
+        <v>8</v>
+      </c>
+      <c r="D11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="42"/>
+      <c r="G11" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="43">
-        <v>8</v>
-      </c>
-      <c r="D12" s="44" t="s">
+      <c r="B12" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="37">
+        <v>8</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H12" s="42"/>
+      <c r="G12" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="43">
-        <v>8</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="B13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="37">
+        <v>8</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H13" s="42"/>
+      <c r="G13" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="43">
-        <v>8</v>
-      </c>
-      <c r="D14" s="44" t="s">
+      <c r="B14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="37">
+        <v>8</v>
+      </c>
+      <c r="D14" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H14" s="42"/>
+      <c r="G14" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="43">
-        <v>8</v>
-      </c>
-      <c r="D15" s="44" t="s">
+      <c r="B15" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="37">
+        <v>8</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H15" s="42"/>
+      <c r="G15" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="43">
-        <v>8</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="B16" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="37">
+        <v>8</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="42"/>
+      <c r="G16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="43">
-        <v>8</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="B17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="37">
+        <v>8</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="42"/>
+      <c r="G17" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="43">
-        <v>8</v>
-      </c>
-      <c r="D18" s="44" t="s">
+      <c r="B18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="37">
+        <v>8</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" s="42"/>
+      <c r="G18" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="36"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="43">
-        <v>8</v>
-      </c>
-      <c r="D19" s="42" t="s">
+      <c r="B19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="37">
+        <v>8</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="42"/>
+      <c r="G19" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="43">
-        <v>8</v>
-      </c>
-      <c r="D20" s="44" t="s">
+      <c r="B20" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="37">
+        <v>8</v>
+      </c>
+      <c r="D20" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42" t="s">
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="42"/>
+      <c r="G20" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="43">
-        <v>8</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="B21" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="37">
+        <v>8</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="42"/>
+      <c r="G21" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="43">
-        <v>8</v>
-      </c>
-      <c r="D22" s="42" t="s">
+      <c r="B22" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="37">
+        <v>8</v>
+      </c>
+      <c r="D22" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="42"/>
+      <c r="G22" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="43">
-        <v>8</v>
-      </c>
-      <c r="D23" s="42" t="s">
+      <c r="B23" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="37">
+        <v>8</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="42"/>
+      <c r="G23" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="43">
-        <v>8</v>
-      </c>
-      <c r="D24" s="42" t="s">
+      <c r="B24" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="37">
+        <v>8</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="42"/>
+      <c r="G24" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="43">
-        <v>8</v>
-      </c>
-      <c r="D25" s="42" t="s">
+      <c r="B25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="37">
+        <v>8</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42" t="s">
+      <c r="E25" s="36"/>
+      <c r="F25" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="42"/>
+      <c r="G25" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="43">
-        <v>8</v>
-      </c>
-      <c r="D26" s="42" t="s">
+      <c r="B26" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="37">
+        <v>8</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42" t="s">
+      <c r="E26" s="36"/>
+      <c r="F26" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="42"/>
+      <c r="G26" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="A27" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="47">
-        <v>8</v>
-      </c>
-      <c r="D27" s="48" t="s">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="35">
+        <v>8</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" s="42"/>
+      <c r="G27" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="A28" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="47">
-        <v>8</v>
-      </c>
-      <c r="D28" s="48" t="s">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="35">
+        <v>8</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" s="57"/>
+      <c r="G28" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H28" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
